--- a/Project Euler 004 A.xlsx
+++ b/Project Euler 004 A.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noccis\Dropbox\1-projets\excel-problem-solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096F6654-FCE2-44F6-AA4E-3882310C4947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4208B6E-A017-4471-83C9-5F92CE22F667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{992B6368-DD97-459C-98CD-9D692D36C46D}"/>
   </bookViews>
@@ -58,10 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
-  <si>
-    <t>Projet Euler 4: Largest Palindrome Product</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>https://projecteuler.net/problem=4</t>
   </si>
@@ -72,16 +69,22 @@
     <t>Find the largest palindrome made from the product of two 3-digit numbers.</t>
   </si>
   <si>
-    <t>1) Recursion</t>
-  </si>
-  <si>
-    <t>2) As one-liner with array formulas</t>
-  </si>
-  <si>
     <t>&lt;-- answer</t>
   </si>
   <si>
     <t>A palindromic number reads the same both ways. The largest palindrome made from the product of two 2-digit number</t>
+  </si>
+  <si>
+    <t>Project Euler 4: Largest Palindrome Product</t>
+  </si>
+  <si>
+    <t>1) One-liner based on recursion</t>
+  </si>
+  <si>
+    <t>2) One-liner based on array formulas</t>
+  </si>
+  <si>
+    <t>(end)</t>
   </si>
 </sst>
 </file>
@@ -164,7 +167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -174,6 +177,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -509,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2663F8E-B104-4C18-89B4-5E1FBCC1C600}">
-  <dimension ref="B3:D21"/>
+  <dimension ref="B2:D20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -521,22 +525,27 @@
     <col min="4" max="102" width="4.54296875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="3" spans="2:4" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="1"/>
-    </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="2" t="s">
-        <v>1</v>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
@@ -544,27 +553,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="1"/>
+    <row r="8" spans="2:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="6">
+        <v>99</v>
+      </c>
+      <c r="C11" s="7" cm="1">
+        <f t="array" ref="C11" xml:space="preserve"> _xlfn.LET(
+_xlpm.NMAX, B11,
+_xlpm.SUB_REVERSED, _xlfn.LAMBDA(_xlpm.ACC,_xlpm.N,_xlpm.ME, IF(_xlpm.N&lt;10, 10*_xlpm.ACC+_xlpm.N, _xlpm.ME(10*_xlpm.ACC+MOD(_xlpm.N,10), QUOTIENT(_xlpm.N,10), _xlpm.ME))),
+_xlpm.REVERSED_NUMBER, _xlfn.LAMBDA(_xlpm.N, _xlpm.SUB_REVERSED(0, _xlpm.N, _xlpm.SUB_REVERSED)),
+_xlpm.IS_PALINDROMIC, _xlfn.LAMBDA(_xlpm.N, _xlpm.N = _xlpm.REVERSED_NUMBER(_xlpm.N)),
+_xlpm.SUBSUB, _xlfn.LAMBDA(_xlpm.N,_xlpm.NN,_xlpm.CURRENT_MAX,_xlpm.ME, IF(_xlpm.NN=0, _xlpm.CURRENT_MAX, IF(_xlpm.IS_PALINDROMIC(_xlpm.N*_xlpm.NN), _xlpm.ME(_xlpm.N, _xlpm.NN-1, MAX(_xlpm.CURRENT_MAX, _xlpm.N*_xlpm.NN), _xlpm.ME), _xlpm.ME(_xlpm.N, _xlpm.NN-1, _xlpm.CURRENT_MAX, _xlpm.ME)))),
+_xlpm.SUB, _xlfn.LAMBDA(_xlpm.N,_xlpm.CURRENT_MAX,_xlpm.ME, IF(_xlpm.N=0, _xlpm.CURRENT_MAX, _xlpm.ME(_xlpm.N-1, MAX(_xlpm.CURRENT_MAX, _xlpm.SUBSUB(_xlpm.N, _xlpm.N, 0, _xlpm.SUBSUB)), _xlpm.ME))),
+_xlpm.SUB(_xlpm.NMAX, 0, _xlpm.SUB))</f>
+        <v>9009</v>
+      </c>
     </row>
     <row r="12" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="6">
-        <v>99</v>
-      </c>
-      <c r="C12" s="7" cm="1">
+        <v>999</v>
+      </c>
+      <c r="C12" s="8" cm="1">
         <f t="array" ref="C12" xml:space="preserve"> _xlfn.LET(
 _xlpm.NMAX, B12,
 _xlpm.SUB_REVERSED, _xlfn.LAMBDA(_xlpm.ACC,_xlpm.N,_xlpm.ME, IF(_xlpm.N&lt;10, 10*_xlpm.ACC+_xlpm.N, _xlpm.ME(10*_xlpm.ACC+MOD(_xlpm.N,10), QUOTIENT(_xlpm.N,10), _xlpm.ME))),
@@ -573,82 +593,68 @@
 _xlpm.SUBSUB, _xlfn.LAMBDA(_xlpm.N,_xlpm.NN,_xlpm.CURRENT_MAX,_xlpm.ME, IF(_xlpm.NN=0, _xlpm.CURRENT_MAX, IF(_xlpm.IS_PALINDROMIC(_xlpm.N*_xlpm.NN), _xlpm.ME(_xlpm.N, _xlpm.NN-1, MAX(_xlpm.CURRENT_MAX, _xlpm.N*_xlpm.NN), _xlpm.ME), _xlpm.ME(_xlpm.N, _xlpm.NN-1, _xlpm.CURRENT_MAX, _xlpm.ME)))),
 _xlpm.SUB, _xlfn.LAMBDA(_xlpm.N,_xlpm.CURRENT_MAX,_xlpm.ME, IF(_xlpm.N=0, _xlpm.CURRENT_MAX, _xlpm.ME(_xlpm.N-1, MAX(_xlpm.CURRENT_MAX, _xlpm.SUBSUB(_xlpm.N, _xlpm.N, 0, _xlpm.SUBSUB)), _xlpm.ME))),
 _xlpm.SUB(_xlpm.NMAX, 0, _xlpm.SUB))</f>
-        <v>9009</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="6">
-        <v>999</v>
-      </c>
-      <c r="C13" s="8" cm="1">
-        <f t="array" ref="C13" xml:space="preserve"> _xlfn.LET(
-_xlpm.NMAX, B13,
+        <v>906609</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="6">
+        <v>99</v>
+      </c>
+      <c r="C16" s="7" cm="1">
+        <f t="array" ref="C16" xml:space="preserve"> _xlfn.LET(
+_xlpm.NMAX, B16,
 _xlpm.SUB_REVERSED, _xlfn.LAMBDA(_xlpm.ACC,_xlpm.N,_xlpm.ME, IF(_xlpm.N&lt;10, 10*_xlpm.ACC+_xlpm.N, _xlpm.ME(10*_xlpm.ACC+MOD(_xlpm.N,10), QUOTIENT(_xlpm.N,10), _xlpm.ME))),
 _xlpm.REVERSED_NUMBER, _xlfn.LAMBDA(_xlpm.N, _xlpm.SUB_REVERSED(0, _xlpm.N, _xlpm.SUB_REVERSED)),
 _xlpm.IS_PALINDROMIC, _xlfn.LAMBDA(_xlpm.N, _xlpm.N = _xlpm.REVERSED_NUMBER(_xlpm.N)),
-_xlpm.SUBSUB, _xlfn.LAMBDA(_xlpm.N,_xlpm.NN,_xlpm.CURRENT_MAX,_xlpm.ME, IF(_xlpm.NN=0, _xlpm.CURRENT_MAX, IF(_xlpm.IS_PALINDROMIC(_xlpm.N*_xlpm.NN), _xlpm.ME(_xlpm.N, _xlpm.NN-1, MAX(_xlpm.CURRENT_MAX, _xlpm.N*_xlpm.NN), _xlpm.ME), _xlpm.ME(_xlpm.N, _xlpm.NN-1, _xlpm.CURRENT_MAX, _xlpm.ME)))),
-_xlpm.SUB, _xlfn.LAMBDA(_xlpm.N,_xlpm.CURRENT_MAX,_xlpm.ME, IF(_xlpm.N=0, _xlpm.CURRENT_MAX, _xlpm.ME(_xlpm.N-1, MAX(_xlpm.CURRENT_MAX, _xlpm.SUBSUB(_xlpm.N, _xlpm.N, 0, _xlpm.SUBSUB)), _xlpm.ME))),
-_xlpm.SUB(_xlpm.NMAX, 0, _xlpm.SUB))</f>
-        <v>906609</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="4"/>
+MAX(_xlfn.MAP(_xlfn.SEQUENCE(_xlpm.NMAX)*_xlfn.SEQUENCE(1,_xlpm.NMAX), _xlfn.LAMBDA(_xlpm.N, IF(_xlpm.IS_PALINDROMIC(_xlpm.N), _xlpm.N, 0)))))</f>
+        <v>9009</v>
+      </c>
     </row>
     <row r="17" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="6">
-        <v>99</v>
-      </c>
-      <c r="C17" s="7" cm="1">
+        <v>999</v>
+      </c>
+      <c r="C17" s="8" cm="1">
         <f t="array" ref="C17" xml:space="preserve"> _xlfn.LET(
 _xlpm.NMAX, B17,
 _xlpm.SUB_REVERSED, _xlfn.LAMBDA(_xlpm.ACC,_xlpm.N,_xlpm.ME, IF(_xlpm.N&lt;10, 10*_xlpm.ACC+_xlpm.N, _xlpm.ME(10*_xlpm.ACC+MOD(_xlpm.N,10), QUOTIENT(_xlpm.N,10), _xlpm.ME))),
 _xlpm.REVERSED_NUMBER, _xlfn.LAMBDA(_xlpm.N, _xlpm.SUB_REVERSED(0, _xlpm.N, _xlpm.SUB_REVERSED)),
 _xlpm.IS_PALINDROMIC, _xlfn.LAMBDA(_xlpm.N, _xlpm.N = _xlpm.REVERSED_NUMBER(_xlpm.N)),
 MAX(_xlfn.MAP(_xlfn.SEQUENCE(_xlpm.NMAX)*_xlfn.SEQUENCE(1,_xlpm.NMAX), _xlfn.LAMBDA(_xlpm.N, IF(_xlpm.IS_PALINDROMIC(_xlpm.N), _xlpm.N, 0)))))</f>
-        <v>9009</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="6">
-        <v>999</v>
-      </c>
-      <c r="C18" s="8" cm="1">
-        <f t="array" ref="C18" xml:space="preserve"> _xlfn.LET(
-_xlpm.NMAX, B18,
-_xlpm.SUB_REVERSED, _xlfn.LAMBDA(_xlpm.ACC,_xlpm.N,_xlpm.ME, IF(_xlpm.N&lt;10, 10*_xlpm.ACC+_xlpm.N, _xlpm.ME(10*_xlpm.ACC+MOD(_xlpm.N,10), QUOTIENT(_xlpm.N,10), _xlpm.ME))),
-_xlpm.REVERSED_NUMBER, _xlfn.LAMBDA(_xlpm.N, _xlpm.SUB_REVERSED(0, _xlpm.N, _xlpm.SUB_REVERSED)),
-_xlpm.IS_PALINDROMIC, _xlfn.LAMBDA(_xlpm.N, _xlpm.N = _xlpm.REVERSED_NUMBER(_xlpm.N)),
-MAX(_xlfn.MAP(_xlfn.SEQUENCE(_xlpm.NMAX)*_xlfn.SEQUENCE(1,_xlpm.NMAX), _xlfn.LAMBDA(_xlpm.N, IF(_xlpm.IS_PALINDROMIC(_xlpm.N), _xlpm.N, 0)))))</f>
         <v>906609</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="4"/>
+      <c r="D17" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="4"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{32B79B6D-2FF1-4423-B17A-97BEC07EF2F2}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{32B79B6D-2FF1-4423-B17A-97BEC07EF2F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
